--- a/biology/Botanique/Rayonnement_photosynthétiquement_actif/Rayonnement_photosynthétiquement_actif.xlsx
+++ b/biology/Botanique/Rayonnement_photosynthétiquement_actif/Rayonnement_photosynthétiquement_actif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rayonnement_photosynth%C3%A9tiquement_actif</t>
+          <t>Rayonnement_photosynthétiquement_actif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le rayonnement photosynthétiquement actif (RPA, ou PAR de l'anglais photosynthetically active radiation) est un rayonnement dont les longueurs d'onde s'étendent de 400 à 700 nm que les organismes photosynthétiques peuvent utiliser dans le processus de photosynthèse.
 L'énergie lumineuse reçue par la surface éclairée s'exprime en µmol.m-2.s-1 ou µE. Cette région spectrale correspond plus ou moins à la plage de lumière visible à l'œil humain. Les photons aux longueurs d'onde plus courtes ont tendance à être si énergiques qu'ils peuvent endommager les cellules et les tissus, mais sont principalement filtrés par la couche d' ozone dans la stratosphère . Les photons à plus grande longueur d'onde ne transportent pas assez d'énergie pour permettre la photosynthèse.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rayonnement_photosynth%C3%A9tiquement_actif</t>
+          <t>Rayonnement_photosynthétiquement_actif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Unités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' éclairement énergétique du PAR peut être mesuré en unités d'énergie (W / m 2 ), ce qui est pertinent pour les considérations de bilan énergétique des organismes photosynthétiques.[réf. souhaitée]
 Cependant, la photosynthèse est un processus quantique[réf. nécessaire] et les réactions chimiques de la photosynthèse dépendent plus du nombre de photons que de l'énergie contenue dans les photons. Par conséquent, les biologistes des plantes quantifient souvent le PAR en utilisant le nombre de photons dans la plage de 400 à 700 nm reçus par une surface pendant un laps de temps spécifié, ou la densité de flux de photons photosynthétiques (PPFD).  PPFD est normalement mesurée à l'aide de mol m -2 s -1 . En ce qui concerne la croissance et la morphologie des plantes, il est préférable de caractériser la disponibilité de lumière pour les plantes à l’aide du Daily Light Integral (DLI), flux quotidien de photons par surface du sol, qui inclut à la fois la variation diurne et la variation de douce journée. refsou=}
